--- a/state_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
+++ b/state_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1153,7 @@
         <v>0.06705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08121656074500019</v>
+        <v>0.0812173141466191</v>
       </c>
       <c r="H9" t="n">
         <v>0.302297804621824</v>
@@ -1234,7 +1234,7 @@
         <v>0.06705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08121656074500019</v>
+        <v>0.0812173141466191</v>
       </c>
       <c r="H10" t="n">
         <v>0.302297804621824</v>
@@ -1473,7 +1473,7 @@
         <v>0.66</v>
       </c>
       <c r="G13" t="n">
-        <v>0.683188679245283</v>
+        <v>0.6832</v>
       </c>
       <c r="H13" t="n">
         <v>1.304</v>
@@ -1550,7 +1550,7 @@
         <v>0.66</v>
       </c>
       <c r="G14" t="n">
-        <v>0.683188679245283</v>
+        <v>0.6832</v>
       </c>
       <c r="H14" t="n">
         <v>1.304</v>
@@ -2603,7 +2603,7 @@
         <v>0.06905</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08063705357552051</v>
+        <v>0.08063728775707719</v>
       </c>
       <c r="H27" t="n">
         <v>0.302297804621824</v>
@@ -2684,7 +2684,7 @@
         <v>0.06905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08063705357552051</v>
+        <v>0.08063728775707719</v>
       </c>
       <c r="H28" t="n">
         <v>0.302297804621824</v>
@@ -2923,7 +2923,7 @@
         <v>0.636</v>
       </c>
       <c r="G31" t="n">
-        <v>0.658127272727273</v>
+        <v>0.658130909090909</v>
       </c>
       <c r="H31" t="n">
         <v>1.304</v>
@@ -3000,7 +3000,7 @@
         <v>0.636</v>
       </c>
       <c r="G32" t="n">
-        <v>0.658127272727273</v>
+        <v>0.658130909090909</v>
       </c>
       <c r="H32" t="n">
         <v>1.304</v>
@@ -3972,7 +3972,7 @@
         <v>0.06818</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0765120326598009</v>
+        <v>0.0765119683335705</v>
       </c>
       <c r="H44" t="n">
         <v>0.302297804621824</v>
@@ -4053,7 +4053,7 @@
         <v>0.06818</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0765120326598009</v>
+        <v>0.0765119683335705</v>
       </c>
       <c r="H45" t="n">
         <v>0.302297804621824</v>
@@ -4292,7 +4292,7 @@
         <v>0.586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.582872727272727</v>
+        <v>0.582898181818182</v>
       </c>
       <c r="H48" t="n">
         <v>1.304</v>
@@ -4303,10 +4303,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.6</v>
+        <v>0.6001</v>
       </c>
       <c r="M48" t="n">
-        <v>0.80355</v>
+        <v>0.80372</v>
       </c>
       <c r="N48" t="n">
         <v>0.8791</v>
@@ -4369,7 +4369,7 @@
         <v>0.586</v>
       </c>
       <c r="G49" t="n">
-        <v>0.582872727272727</v>
+        <v>0.582898181818182</v>
       </c>
       <c r="H49" t="n">
         <v>1.304</v>
@@ -4380,10 +4380,10 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.6</v>
+        <v>0.6001</v>
       </c>
       <c r="M49" t="n">
-        <v>0.80355</v>
+        <v>0.80372</v>
       </c>
       <c r="N49" t="n">
         <v>0.8791</v>
@@ -4839,10 +4839,10 @@
         <v>1.51</v>
       </c>
       <c r="G55" t="n">
-        <v>1.51411916888816</v>
+        <v>1.51152290097887</v>
       </c>
       <c r="H55" t="n">
-        <v>2.83181340442101</v>
+        <v>2.74873283132386</v>
       </c>
       <c r="I55" t="n">
         <v>2.361</v>
@@ -5422,7 +5422,7 @@
         <v>0.0311</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0535507158809735</v>
+        <v>0.0535547958097898</v>
       </c>
       <c r="H62" t="n">
         <v>0.256820272656589</v>
@@ -5503,7 +5503,7 @@
         <v>0.0311</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0535507158809735</v>
+        <v>0.0535547958097898</v>
       </c>
       <c r="H63" t="n">
         <v>0.256820272656589</v>
@@ -5742,24 +5742,24 @@
         <v>0.46</v>
       </c>
       <c r="G66" t="n">
-        <v>0.492666666666667</v>
+        <v>0.492682456140351</v>
       </c>
       <c r="H66" t="n">
         <v>1.043</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8667</v>
+        <v>0.86687</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5658</v>
       </c>
       <c r="M66" t="n">
-        <v>0.70081</v>
+        <v>0.70105</v>
       </c>
       <c r="N66" t="n">
-        <v>0.81698</v>
+        <v>0.81699</v>
       </c>
       <c r="O66" t="n">
         <v>1828659.395</v>
@@ -5819,24 +5819,24 @@
         <v>0.46</v>
       </c>
       <c r="G67" t="n">
-        <v>0.492666666666667</v>
+        <v>0.492682456140351</v>
       </c>
       <c r="H67" t="n">
         <v>1.043</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8667</v>
+        <v>0.86687</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5658</v>
       </c>
       <c r="M67" t="n">
-        <v>0.70081</v>
+        <v>0.70105</v>
       </c>
       <c r="N67" t="n">
-        <v>0.81698</v>
+        <v>0.81699</v>
       </c>
       <c r="O67" t="n">
         <v>1828659.395</v>
@@ -6289,13 +6289,13 @@
         <v>1.55</v>
       </c>
       <c r="G73" t="n">
-        <v>1.60389265139541</v>
+        <v>1.60176238029036</v>
       </c>
       <c r="H73" t="n">
         <v>3.17</v>
       </c>
       <c r="I73" t="n">
-        <v>2.97932</v>
+        <v>2.94193</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -6306,7 +6306,7 @@
         <v>1.9761</v>
       </c>
       <c r="N73" t="n">
-        <v>2.55789</v>
+        <v>2.52632</v>
       </c>
       <c r="O73" t="n">
         <v>1828659.395</v>
@@ -6869,10 +6869,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.00162</v>
+        <v>0.00165</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0450805965364768</v>
+        <v>0.0451101588820846</v>
       </c>
       <c r="H80" t="n">
         <v>0.256820272656589</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00086</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M80" t="n">
         <v>0.11033</v>
@@ -6950,10 +6950,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.00162</v>
+        <v>0.00165</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0450805965364768</v>
+        <v>0.0451101588820846</v>
       </c>
       <c r="H81" t="n">
         <v>0.256820272656589</v>
@@ -6964,7 +6964,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00086</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="M81" t="n">
         <v>0.11033</v>
@@ -7189,16 +7189,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.376</v>
+        <v>0.3764</v>
       </c>
       <c r="G84" t="n">
-        <v>0.426035087719298</v>
+        <v>0.426050877192982</v>
       </c>
       <c r="H84" t="n">
         <v>1.03</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7688</v>
+        <v>0.76893</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -7206,10 +7206,10 @@
         <v>0.359</v>
       </c>
       <c r="M84" t="n">
-        <v>0.66081</v>
+        <v>0.66049</v>
       </c>
       <c r="N84" t="n">
-        <v>0.70094</v>
+        <v>0.70122</v>
       </c>
       <c r="O84" t="n">
         <v>1828659.395</v>
@@ -7266,16 +7266,16 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.376</v>
+        <v>0.3764</v>
       </c>
       <c r="G85" t="n">
-        <v>0.426035087719298</v>
+        <v>0.426050877192982</v>
       </c>
       <c r="H85" t="n">
         <v>1.03</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7688</v>
+        <v>0.76893</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -7283,10 +7283,10 @@
         <v>0.359</v>
       </c>
       <c r="M85" t="n">
-        <v>0.66081</v>
+        <v>0.66049</v>
       </c>
       <c r="N85" t="n">
-        <v>0.70094</v>
+        <v>0.70122</v>
       </c>
       <c r="O85" t="n">
         <v>1828659.395</v>
@@ -7736,27 +7736,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="G91" t="n">
-        <v>1.65439691644426</v>
+        <v>1.68871017297431</v>
       </c>
       <c r="H91" t="n">
         <v>3.17</v>
       </c>
       <c r="I91" t="n">
-        <v>2.89886</v>
+        <v>3.07322</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M91" t="n">
-        <v>2.14191</v>
+        <v>2.26356</v>
       </c>
       <c r="N91" t="n">
-        <v>2.45187</v>
+        <v>2.73834</v>
       </c>
       <c r="O91" t="n">
         <v>1828659.395</v>
@@ -7982,7 +7982,7 @@
         <v>49.5</v>
       </c>
       <c r="G94" t="n">
-        <v>936.807811030703</v>
+        <v>936.8077107275629</v>
       </c>
       <c r="H94" t="n">
         <v>16500</v>
@@ -8067,7 +8067,7 @@
         <v>49.5</v>
       </c>
       <c r="G95" t="n">
-        <v>936.807811030703</v>
+        <v>936.8077107275629</v>
       </c>
       <c r="H95" t="n">
         <v>16500</v>
@@ -8152,7 +8152,7 @@
         <v>49.5</v>
       </c>
       <c r="G96" t="n">
-        <v>936.807811030703</v>
+        <v>936.8077107275629</v>
       </c>
       <c r="H96" t="n">
         <v>16500</v>
@@ -8237,7 +8237,7 @@
         <v>49.5</v>
       </c>
       <c r="G97" t="n">
-        <v>936.807811030703</v>
+        <v>936.8077107275629</v>
       </c>
       <c r="H97" t="n">
         <v>16500</v>
@@ -8319,10 +8319,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00138</v>
+        <v>0.00152</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0239253740004981</v>
+        <v>0.0239977700839333</v>
       </c>
       <c r="H98" t="n">
         <v>0.216248302286293</v>
@@ -8333,7 +8333,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00091</v>
+        <v>0.00102</v>
       </c>
       <c r="M98" t="n">
         <v>0.06504</v>
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.00138</v>
+        <v>0.00152</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0239253740004981</v>
+        <v>0.0239977700839333</v>
       </c>
       <c r="H99" t="n">
         <v>0.216248302286293</v>
@@ -8414,7 +8414,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00091</v>
+        <v>0.00102</v>
       </c>
       <c r="M99" t="n">
         <v>0.06504</v>
@@ -8639,27 +8639,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.3275</v>
+        <v>0.3277</v>
       </c>
       <c r="G102" t="n">
-        <v>0.367583333333333</v>
+        <v>0.367598333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0.842</v>
+        <v>0.8425</v>
       </c>
       <c r="I102" t="n">
-        <v>0.705</v>
+        <v>0.7051500000000001</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.334</v>
+        <v>0.33395</v>
       </c>
       <c r="M102" t="n">
-        <v>0.5429</v>
+        <v>0.54312</v>
       </c>
       <c r="N102" t="n">
-        <v>0.6834</v>
+        <v>0.6831199999999999</v>
       </c>
       <c r="O102" t="n">
         <v>1828659.395</v>
@@ -8716,27 +8716,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.3275</v>
+        <v>0.3277</v>
       </c>
       <c r="G103" t="n">
-        <v>0.367583333333333</v>
+        <v>0.367598333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0.842</v>
+        <v>0.8425</v>
       </c>
       <c r="I103" t="n">
-        <v>0.705</v>
+        <v>0.7051500000000001</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.334</v>
+        <v>0.33395</v>
       </c>
       <c r="M103" t="n">
-        <v>0.5429</v>
+        <v>0.54312</v>
       </c>
       <c r="N103" t="n">
-        <v>0.6834</v>
+        <v>0.6831199999999999</v>
       </c>
       <c r="O103" t="n">
         <v>1828659.395</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9186,27 +9186,27 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.54814</v>
+        <v>1.57</v>
       </c>
       <c r="G109" t="n">
-        <v>1.50130960916649</v>
+        <v>1.53347828716342</v>
       </c>
       <c r="H109" t="n">
         <v>3.17</v>
       </c>
       <c r="I109" t="n">
-        <v>2.85863</v>
+        <v>3.06786</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="M109" t="n">
-        <v>2.05676</v>
+        <v>2.13968</v>
       </c>
       <c r="N109" t="n">
-        <v>2.43537</v>
+        <v>2.7134</v>
       </c>
       <c r="O109" t="n">
         <v>1828659.395</v>
@@ -9432,7 +9432,7 @@
         <v>34</v>
       </c>
       <c r="G112" t="n">
-        <v>872.57447769737</v>
+        <v>872.5743773942301</v>
       </c>
       <c r="H112" t="n">
         <v>16500</v>
@@ -9517,7 +9517,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="n">
-        <v>872.57447769737</v>
+        <v>872.5743773942301</v>
       </c>
       <c r="H113" t="n">
         <v>16500</v>
@@ -9602,7 +9602,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="n">
-        <v>872.57447769737</v>
+        <v>872.5743773942301</v>
       </c>
       <c r="H114" t="n">
         <v>16500</v>
@@ -9687,7 +9687,7 @@
         <v>34</v>
       </c>
       <c r="G115" t="n">
-        <v>872.57447769737</v>
+        <v>872.5743773942301</v>
       </c>
       <c r="H115" t="n">
         <v>16500</v>
@@ -9769,10 +9769,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.00141</v>
+        <v>0.00152</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0131420616919086</v>
+        <v>0.0132653868254879</v>
       </c>
       <c r="H116" t="n">
         <v>0.216248302286293</v>
@@ -9783,10 +9783,10 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00095</v>
+        <v>0.00108</v>
       </c>
       <c r="M116" t="n">
-        <v>0.00349</v>
+        <v>0.00381</v>
       </c>
       <c r="N116" t="n">
         <v>0.03269</v>
@@ -9850,10 +9850,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00141</v>
+        <v>0.00152</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0131420616919086</v>
+        <v>0.0132653868254879</v>
       </c>
       <c r="H117" t="n">
         <v>0.216248302286293</v>
@@ -9864,10 +9864,10 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00095</v>
+        <v>0.00108</v>
       </c>
       <c r="M117" t="n">
-        <v>0.00349</v>
+        <v>0.00381</v>
       </c>
       <c r="N117" t="n">
         <v>0.03269</v>
@@ -10092,13 +10092,13 @@
         <v>0.285</v>
       </c>
       <c r="G120" t="n">
-        <v>0.311183333333333</v>
+        <v>0.311195</v>
       </c>
       <c r="H120" t="n">
-        <v>0.842</v>
+        <v>0.8425</v>
       </c>
       <c r="I120" t="n">
-        <v>0.668</v>
+        <v>0.6677999999999999</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -10106,10 +10106,10 @@
         <v>0.305</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3938</v>
+        <v>0.39408</v>
       </c>
       <c r="N120" t="n">
-        <v>0.5306</v>
+        <v>0.53088</v>
       </c>
       <c r="O120" t="n">
         <v>1828659.395</v>
@@ -10169,13 +10169,13 @@
         <v>0.285</v>
       </c>
       <c r="G121" t="n">
-        <v>0.311183333333333</v>
+        <v>0.311195</v>
       </c>
       <c r="H121" t="n">
-        <v>0.842</v>
+        <v>0.8425</v>
       </c>
       <c r="I121" t="n">
-        <v>0.668</v>
+        <v>0.6677999999999999</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10183,10 +10183,10 @@
         <v>0.305</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3938</v>
+        <v>0.39408</v>
       </c>
       <c r="N121" t="n">
-        <v>0.5306</v>
+        <v>0.53088</v>
       </c>
       <c r="O121" t="n">
         <v>1828659.395</v>
@@ -10636,27 +10636,27 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.57</v>
+        <v>1.615</v>
       </c>
       <c r="G127" t="n">
-        <v>1.51607153099979</v>
+        <v>1.5546739445961</v>
       </c>
       <c r="H127" t="n">
         <v>3.17</v>
       </c>
       <c r="I127" t="n">
-        <v>2.96591</v>
+        <v>3.08214</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M127" t="n">
-        <v>2.26009</v>
+        <v>2.328</v>
       </c>
       <c r="N127" t="n">
-        <v>2.57067</v>
+        <v>2.8434</v>
       </c>
       <c r="O127" t="n">
         <v>1828659.395</v>
@@ -10882,7 +10882,7 @@
         <v>23</v>
       </c>
       <c r="G130" t="n">
-        <v>240.771514012321</v>
+        <v>240.770144116563</v>
       </c>
       <c r="H130" t="n">
         <v>10000</v>
@@ -10967,7 +10967,7 @@
         <v>23</v>
       </c>
       <c r="G131" t="n">
-        <v>240.771514012321</v>
+        <v>240.770144116563</v>
       </c>
       <c r="H131" t="n">
         <v>10000</v>
@@ -11052,7 +11052,7 @@
         <v>23</v>
       </c>
       <c r="G132" t="n">
-        <v>240.771514012321</v>
+        <v>240.770144116563</v>
       </c>
       <c r="H132" t="n">
         <v>10000</v>
@@ -11137,7 +11137,7 @@
         <v>23</v>
       </c>
       <c r="G133" t="n">
-        <v>240.771514012321</v>
+        <v>240.770144116563</v>
       </c>
       <c r="H133" t="n">
         <v>10000</v>
@@ -11219,27 +11219,27 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.00175</v>
+        <v>0.00193</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0028106340585037</v>
+        <v>0.0030347411019031</v>
       </c>
       <c r="H134" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I134" t="n">
-        <v>0.00891</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.0024</v>
+        <v>0.00264</v>
       </c>
       <c r="M134" t="n">
-        <v>0.00563</v>
+        <v>0.00614</v>
       </c>
       <c r="N134" t="n">
-        <v>0.00778</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="O134" t="n">
         <v>1828659.395</v>
@@ -11300,27 +11300,27 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.00175</v>
+        <v>0.00193</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0028106340585037</v>
+        <v>0.0030347411019031</v>
       </c>
       <c r="H135" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I135" t="n">
-        <v>0.00891</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.0024</v>
+        <v>0.00264</v>
       </c>
       <c r="M135" t="n">
-        <v>0.00563</v>
+        <v>0.00614</v>
       </c>
       <c r="N135" t="n">
-        <v>0.00778</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="O135" t="n">
         <v>1828659.395</v>
@@ -11542,7 +11542,7 @@
         <v>0.275</v>
       </c>
       <c r="G138" t="n">
-        <v>0.282633333333333</v>
+        <v>0.282616666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0.675</v>
@@ -11619,7 +11619,7 @@
         <v>0.275</v>
       </c>
       <c r="G139" t="n">
-        <v>0.282633333333333</v>
+        <v>0.282616666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0.675</v>
@@ -12251,7 +12251,7 @@
         <v>21</v>
       </c>
       <c r="G147" t="n">
-        <v>240.158275182929</v>
+        <v>240.154867925907</v>
       </c>
       <c r="H147" t="n">
         <v>10000</v>
@@ -12336,7 +12336,7 @@
         <v>21</v>
       </c>
       <c r="G148" t="n">
-        <v>240.158275182929</v>
+        <v>240.154867925907</v>
       </c>
       <c r="H148" t="n">
         <v>10000</v>
@@ -12421,7 +12421,7 @@
         <v>21</v>
       </c>
       <c r="G149" t="n">
-        <v>240.158275182929</v>
+        <v>240.154867925907</v>
       </c>
       <c r="H149" t="n">
         <v>10000</v>
@@ -12506,7 +12506,7 @@
         <v>21</v>
       </c>
       <c r="G150" t="n">
-        <v>240.158275182929</v>
+        <v>240.154867925907</v>
       </c>
       <c r="H150" t="n">
         <v>10000</v>
@@ -12588,27 +12588,27 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.00277</v>
+        <v>0.00303</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0031241352190577</v>
+        <v>0.0033571842234038</v>
       </c>
       <c r="H151" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I151" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00287</v>
+        <v>0.00302</v>
       </c>
       <c r="M151" t="n">
-        <v>0.00566</v>
+        <v>0.00618</v>
       </c>
       <c r="N151" t="n">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="O151" t="n">
         <v>1828659.395</v>
@@ -12669,27 +12669,27 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.00277</v>
+        <v>0.00303</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0031241352190577</v>
+        <v>0.0033571842234038</v>
       </c>
       <c r="H152" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I152" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>0.00287</v>
+        <v>0.00302</v>
       </c>
       <c r="M152" t="n">
-        <v>0.00566</v>
+        <v>0.00618</v>
       </c>
       <c r="N152" t="n">
-        <v>0.007</v>
+        <v>0.0075</v>
       </c>
       <c r="O152" t="n">
         <v>1828659.395</v>
@@ -12911,7 +12911,7 @@
         <v>0.275</v>
       </c>
       <c r="G155" t="n">
-        <v>0.286118644067797</v>
+        <v>0.286101694915254</v>
       </c>
       <c r="H155" t="n">
         <v>0.675</v>
@@ -12988,7 +12988,7 @@
         <v>0.275</v>
       </c>
       <c r="G156" t="n">
-        <v>0.286118644067797</v>
+        <v>0.286101694915254</v>
       </c>
       <c r="H156" t="n">
         <v>0.675</v>
@@ -13620,7 +13620,7 @@
         <v>16</v>
       </c>
       <c r="G164" t="n">
-        <v>69.7175972168276</v>
+        <v>69.71418995980569</v>
       </c>
       <c r="H164" t="n">
         <v>2700</v>
@@ -13705,7 +13705,7 @@
         <v>16</v>
       </c>
       <c r="G165" t="n">
-        <v>69.7175972168276</v>
+        <v>69.71418995980569</v>
       </c>
       <c r="H165" t="n">
         <v>2700</v>
@@ -13790,7 +13790,7 @@
         <v>16</v>
       </c>
       <c r="G166" t="n">
-        <v>69.7175972168276</v>
+        <v>69.71418995980569</v>
       </c>
       <c r="H166" t="n">
         <v>2700</v>
@@ -13875,7 +13875,7 @@
         <v>16</v>
       </c>
       <c r="G167" t="n">
-        <v>69.7175972168276</v>
+        <v>69.71418995980569</v>
       </c>
       <c r="H167" t="n">
         <v>2700</v>
@@ -13957,27 +13957,27 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00305</v>
+        <v>0.0032</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0033544571700735</v>
+        <v>0.0035545762501921</v>
       </c>
       <c r="H168" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I168" t="n">
-        <v>0.00835</v>
+        <v>0.00912</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00302</v>
+        <v>0.00314</v>
       </c>
       <c r="M168" t="n">
-        <v>0.00565</v>
+        <v>0.00616</v>
       </c>
       <c r="N168" t="n">
-        <v>0.00691</v>
+        <v>0.00738</v>
       </c>
       <c r="O168" t="n">
         <v>1828659.395</v>
@@ -14038,27 +14038,27 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.00305</v>
+        <v>0.0032</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0033544571700735</v>
+        <v>0.0035545762501921</v>
       </c>
       <c r="H169" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I169" t="n">
-        <v>0.00835</v>
+        <v>0.00912</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.00302</v>
+        <v>0.00314</v>
       </c>
       <c r="M169" t="n">
-        <v>0.00565</v>
+        <v>0.00616</v>
       </c>
       <c r="N169" t="n">
-        <v>0.00691</v>
+        <v>0.00738</v>
       </c>
       <c r="O169" t="n">
         <v>1828659.395</v>
@@ -14280,7 +14280,7 @@
         <v>0.275</v>
       </c>
       <c r="G172" t="n">
-        <v>0.277271186440678</v>
+        <v>0.277254237288136</v>
       </c>
       <c r="H172" t="n">
         <v>0.404</v>
@@ -14357,7 +14357,7 @@
         <v>0.275</v>
       </c>
       <c r="G173" t="n">
-        <v>0.277271186440678</v>
+        <v>0.277254237288136</v>
       </c>
       <c r="H173" t="n">
         <v>0.404</v>
@@ -14989,7 +14989,7 @@
         <v>16</v>
       </c>
       <c r="G181" t="n">
-        <v>73.6808166818669</v>
+        <v>73.6760636974906</v>
       </c>
       <c r="H181" t="n">
         <v>2700</v>
@@ -15074,7 +15074,7 @@
         <v>16</v>
       </c>
       <c r="G182" t="n">
-        <v>73.6808166818669</v>
+        <v>73.6760636974906</v>
       </c>
       <c r="H182" t="n">
         <v>2700</v>
@@ -15159,7 +15159,7 @@
         <v>16</v>
       </c>
       <c r="G183" t="n">
-        <v>73.6808166818669</v>
+        <v>73.6760636974906</v>
       </c>
       <c r="H183" t="n">
         <v>2700</v>
@@ -15244,7 +15244,7 @@
         <v>16</v>
       </c>
       <c r="G184" t="n">
-        <v>73.6808166818669</v>
+        <v>73.6760636974906</v>
       </c>
       <c r="H184" t="n">
         <v>2700</v>
@@ -15326,27 +15326,27 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.00319</v>
+        <v>0.00333</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0038856778329027</v>
+        <v>0.0040345051959891</v>
       </c>
       <c r="H185" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I185" t="n">
-        <v>0.00929</v>
+        <v>0.0098</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00319</v>
+        <v>0.00347</v>
       </c>
       <c r="M185" t="n">
-        <v>0.00618</v>
+        <v>0.0066</v>
       </c>
       <c r="N185" t="n">
-        <v>0.00865</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="O185" t="n">
         <v>1828659.395</v>
@@ -15407,27 +15407,27 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00319</v>
+        <v>0.00333</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0038856778329027</v>
+        <v>0.0040345051959891</v>
       </c>
       <c r="H186" t="n">
         <v>0.0128631993100591</v>
       </c>
       <c r="I186" t="n">
-        <v>0.00929</v>
+        <v>0.0098</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00319</v>
+        <v>0.00347</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00618</v>
+        <v>0.0066</v>
       </c>
       <c r="N186" t="n">
-        <v>0.00865</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="O186" t="n">
         <v>1828659.395</v>
@@ -15649,7 +15649,7 @@
         <v>0.276</v>
       </c>
       <c r="G189" t="n">
-        <v>0.310254237288136</v>
+        <v>0.310237288135593</v>
       </c>
       <c r="H189" t="n">
         <v>1.943</v>
@@ -15666,7 +15666,7 @@
         <v>0.365</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3899</v>
+        <v>0.38951</v>
       </c>
       <c r="O189" t="n">
         <v>1828659.395</v>
@@ -15726,7 +15726,7 @@
         <v>0.276</v>
       </c>
       <c r="G190" t="n">
-        <v>0.310254237288136</v>
+        <v>0.310237288135593</v>
       </c>
       <c r="H190" t="n">
         <v>1.943</v>
@@ -15743,7 +15743,7 @@
         <v>0.365</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3899</v>
+        <v>0.38951</v>
       </c>
       <c r="O190" t="n">
         <v>1828659.395</v>
@@ -16085,6 +16085,1375 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (83rd Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>19</v>
+      </c>
+      <c r="G195" t="n">
+        <v>29.3025423728814</v>
+      </c>
+      <c r="H195" t="n">
+        <v>120</v>
+      </c>
+      <c r="I195" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>27</v>
+      </c>
+      <c r="M195" t="n">
+        <v>60</v>
+      </c>
+      <c r="N195" t="n">
+        <v>80</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0333898305084746</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.06725</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0333898305084746</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.06725</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>16</v>
+      </c>
+      <c r="G198" t="n">
+        <v>27.5913179347787</v>
+      </c>
+      <c r="H198" t="n">
+        <v>295</v>
+      </c>
+      <c r="I198" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="L198" t="n">
+        <v>27</v>
+      </c>
+      <c r="M198" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="N198" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>16</v>
+      </c>
+      <c r="G199" t="n">
+        <v>27.5913179347787</v>
+      </c>
+      <c r="H199" t="n">
+        <v>295</v>
+      </c>
+      <c r="I199" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="L199" t="n">
+        <v>27</v>
+      </c>
+      <c r="M199" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="N199" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>16</v>
+      </c>
+      <c r="G200" t="n">
+        <v>27.5913179347787</v>
+      </c>
+      <c r="H200" t="n">
+        <v>295</v>
+      </c>
+      <c r="I200" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="L200" t="n">
+        <v>27</v>
+      </c>
+      <c r="M200" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="N200" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>16</v>
+      </c>
+      <c r="G201" t="n">
+        <v>27.5913179347787</v>
+      </c>
+      <c r="H201" t="n">
+        <v>295</v>
+      </c>
+      <c r="I201" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1.69491525423729</v>
+      </c>
+      <c r="L201" t="n">
+        <v>27</v>
+      </c>
+      <c r="M201" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="N201" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0041300206583638</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.0130788892630831</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0041300206583638</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.0130788892630831</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.304423728813559</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.36129</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.40456</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.304423728813559</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.36129</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.40456</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.311762711864407</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.44305</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.36923</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.41882</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.311762711864407</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.44305</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.36923</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.41882</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.350677966101695</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.350677966101695</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.4247</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0489152542372881</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.09594999999999999</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.05782</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.07056</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0489152542372881</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.09594999999999999</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.05782</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.07056</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
+++ b/state_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
@@ -4839,13 +4839,13 @@
         <v>1.51</v>
       </c>
       <c r="G55" t="n">
-        <v>1.51152290097887</v>
+        <v>1.49763260291247</v>
       </c>
       <c r="H55" t="n">
-        <v>2.74873283132386</v>
+        <v>2.39</v>
       </c>
       <c r="I55" t="n">
-        <v>2.361</v>
+        <v>2.28382</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -6289,13 +6289,13 @@
         <v>1.55</v>
       </c>
       <c r="G73" t="n">
-        <v>1.60176238029036</v>
+        <v>1.59036521264613</v>
       </c>
       <c r="H73" t="n">
         <v>3.17</v>
       </c>
       <c r="I73" t="n">
-        <v>2.94193</v>
+        <v>2.7805</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -6306,7 +6306,7 @@
         <v>1.9761</v>
       </c>
       <c r="N73" t="n">
-        <v>2.52632</v>
+        <v>2.33683</v>
       </c>
       <c r="O73" t="n">
         <v>1828659.395</v>
@@ -7739,13 +7739,13 @@
         <v>1.64</v>
       </c>
       <c r="G91" t="n">
-        <v>1.68871017297431</v>
+        <v>1.70807192433442</v>
       </c>
       <c r="H91" t="n">
-        <v>3.17</v>
+        <v>3.86214067212531</v>
       </c>
       <c r="I91" t="n">
-        <v>3.07322</v>
+        <v>3.1175</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7753,10 +7753,10 @@
         <v>1.85</v>
       </c>
       <c r="M91" t="n">
-        <v>2.26356</v>
+        <v>2.30361</v>
       </c>
       <c r="N91" t="n">
-        <v>2.73834</v>
+        <v>2.63096</v>
       </c>
       <c r="O91" t="n">
         <v>1828659.395</v>
@@ -9189,13 +9189,13 @@
         <v>1.57</v>
       </c>
       <c r="G109" t="n">
-        <v>1.53347828716342</v>
+        <v>1.55162992906352</v>
       </c>
       <c r="H109" t="n">
-        <v>3.17</v>
+        <v>3.86214067212531</v>
       </c>
       <c r="I109" t="n">
-        <v>3.06786</v>
+        <v>3.107</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -9203,10 +9203,10 @@
         <v>1.83</v>
       </c>
       <c r="M109" t="n">
-        <v>2.13968</v>
+        <v>2.30144</v>
       </c>
       <c r="N109" t="n">
-        <v>2.7134</v>
+        <v>2.56671</v>
       </c>
       <c r="O109" t="n">
         <v>1828659.395</v>
@@ -10639,13 +10639,13 @@
         <v>1.615</v>
       </c>
       <c r="G127" t="n">
-        <v>1.5546739445961</v>
+        <v>1.57645591487622</v>
       </c>
       <c r="H127" t="n">
-        <v>3.17</v>
+        <v>3.86214067212531</v>
       </c>
       <c r="I127" t="n">
-        <v>3.08214</v>
+        <v>3.135</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -10653,10 +10653,10 @@
         <v>1.85</v>
       </c>
       <c r="M127" t="n">
-        <v>2.328</v>
+        <v>2.32927</v>
       </c>
       <c r="N127" t="n">
-        <v>2.8434</v>
+        <v>2.79042</v>
       </c>
       <c r="O127" t="n">
         <v>1828659.395</v>
